--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>Test Name</t>
   </si>
@@ -48,6 +48,36 @@
   </si>
   <si>
     <t>testpositiveuserid</t>
+  </si>
+  <si>
+    <t>Test_Sucessfull_Login</t>
+  </si>
+  <si>
+    <t>Test_Registration_page</t>
+  </si>
+  <si>
+    <t>test_create_reservation_new_mode_mandatory_fields_TC_RS_01</t>
+  </si>
+  <si>
+    <t>test_open_and_amend_saved_reservation_TC_RS_02</t>
+  </si>
+  <si>
+    <t>test_verify_updated_details_open_mode_TC_RS_03</t>
+  </si>
+  <si>
+    <t>test_cancel_reservation_with_reason_TC_RS_04</t>
+  </si>
+  <si>
+    <t>test_verify_cancelled_reservation_visibility_TC_RS_05</t>
+  </si>
+  <si>
+    <t>test_create_addon_reservation_from_existing_TC_RS_06</t>
+  </si>
+  <si>
+    <t>test_verify_reservation_view_mode_TC_RS_11</t>
+  </si>
+  <si>
+    <t>test_reinstate_cancelled_reservation_TC_RS_08</t>
   </si>
 </sst>
 </file>
@@ -92,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -123,7 +153,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>376.0</v>
+        <v>418.0</v>
       </c>
     </row>
     <row r="3">
@@ -137,7 +167,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>425.0</v>
+        <v>388.0</v>
       </c>
     </row>
     <row r="4">
@@ -151,7 +181,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>2881.0</v>
+        <v>2957.0</v>
       </c>
     </row>
     <row r="5">
@@ -165,7 +195,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>571.0</v>
+        <v>864.0</v>
       </c>
     </row>
     <row r="6">
@@ -179,7 +209,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>878.0</v>
+        <v>1078.0</v>
       </c>
     </row>
     <row r="7">
@@ -193,7 +223,147 @@
         <v>6</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>657.0</v>
+        <v>935.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>5860.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>5448.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>11581.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>38340.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>41110.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>19169.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>45767.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>9526.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>17024.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>59429.0</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t>Test Name</t>
   </si>
@@ -62,9 +62,28 @@
     <t>test_open_and_amend_saved_reservation_TC_RS_02</t>
   </si>
   <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to be clickable: By.xpath: (//div[@aria-rowindex="6"])[23] (tried for 20 second(s) with 500 milliseconds interval)
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52337}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52337/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 036403e308aff4d45951e2da98287c10</t>
+  </si>
+  <si>
     <t>test_verify_updated_details_open_mode_TC_RS_03</t>
   </si>
   <si>
+    <t>Expected condition failed: waiting for element to be clickable: By.xpath: (//button[@class='webix_button webix_img_btn'])[1] (tried for 20 second(s) with 500 milliseconds interval)
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52337}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52337/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 036403e308aff4d45951e2da98287c10</t>
+  </si>
+  <si>
     <t>test_cancel_reservation_with_reason_TC_RS_04</t>
   </si>
   <si>
@@ -78,6 +97,15 @@
   </si>
   <si>
     <t>test_reinstate_cancelled_reservation_TC_RS_08</t>
+  </si>
+  <si>
+    <t>test_addon_reservation_after_account_date_TC_RS_10</t>
+  </si>
+  <si>
+    <t>test_split_reservation_multiple_rooms_TC_RS_07</t>
+  </si>
+  <si>
+    <t>test_ledger_transactions_modify_open_mode_TC_RS_12_Advance</t>
   </si>
 </sst>
 </file>
@@ -122,7 +150,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -153,7 +181,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>418.0</v>
+        <v>233.0</v>
       </c>
     </row>
     <row r="3">
@@ -167,7 +195,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>388.0</v>
+        <v>252.0</v>
       </c>
     </row>
     <row r="4">
@@ -181,7 +209,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>2957.0</v>
+        <v>2651.0</v>
       </c>
     </row>
     <row r="5">
@@ -195,7 +223,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>864.0</v>
+        <v>607.0</v>
       </c>
     </row>
     <row r="6">
@@ -209,7 +237,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>1078.0</v>
+        <v>702.0</v>
       </c>
     </row>
     <row r="7">
@@ -223,7 +251,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>935.0</v>
+        <v>741.0</v>
       </c>
     </row>
     <row r="8">
@@ -237,7 +265,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>5860.0</v>
+        <v>12441.0</v>
       </c>
     </row>
     <row r="9">
@@ -251,7 +279,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>5448.0</v>
+        <v>3766.0</v>
       </c>
     </row>
     <row r="10">
@@ -265,7 +293,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>11581.0</v>
+        <v>6928.0</v>
       </c>
     </row>
     <row r="11">
@@ -273,32 +301,32 @@
         <v>15</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>38340.0</v>
+        <v>42290.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>5</v>
-      </c>
       <c r="C12" t="s" s="0">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>41110.0</v>
+        <v>43089.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>5</v>
@@ -307,12 +335,12 @@
         <v>6</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>19169.0</v>
+        <v>16303.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>5</v>
@@ -321,12 +349,12 @@
         <v>6</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>45767.0</v>
+        <v>43537.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>5</v>
@@ -335,12 +363,12 @@
         <v>6</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>9526.0</v>
+        <v>11586.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>5</v>
@@ -349,12 +377,12 @@
         <v>6</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>17024.0</v>
+        <v>20829.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>5</v>
@@ -363,7 +391,49 @@
         <v>6</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>59429.0</v>
+        <v>65224.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>29332.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>17661.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>33027.0</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>Test Name</t>
   </si>
@@ -69,21 +69,13 @@
 Build info: version: '4.33.0', revision: '2c6aaad03a'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52337}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52337/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 036403e308aff4d45951e2da98287c10</t>
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57523}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57523/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 01cb6574d90a2c3b2796e9da7920c48a</t>
   </si>
   <si>
     <t>test_verify_updated_details_open_mode_TC_RS_03</t>
   </si>
   <si>
-    <t>Expected condition failed: waiting for element to be clickable: By.xpath: (//button[@class='webix_button webix_img_btn'])[1] (tried for 20 second(s) with 500 milliseconds interval)
-Build info: version: '4.33.0', revision: '2c6aaad03a'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52337}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52337/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 036403e308aff4d45951e2da98287c10</t>
-  </si>
-  <si>
     <t>test_cancel_reservation_with_reason_TC_RS_04</t>
   </si>
   <si>
@@ -105,7 +97,19 @@
     <t>test_split_reservation_multiple_rooms_TC_RS_07</t>
   </si>
   <si>
+    <t>test_ledger_transactions_modify_open_mode_TC_RS_12</t>
+  </si>
+  <si>
     <t>test_ledger_transactions_modify_open_mode_TC_RS_12_Advance</t>
+  </si>
+  <si>
+    <t>test_checkin_allowed_on_matching_arrival_and_account_date_TC_CI_01</t>
+  </si>
+  <si>
+    <t>test_perform_checkin_on_matching_dates_TC_CI_02</t>
+  </si>
+  <si>
+    <t>test_verify_registration_card_and_email_after_checkin_TC_CI_04</t>
   </si>
 </sst>
 </file>
@@ -150,7 +154,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -181,7 +185,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>233.0</v>
+        <v>423.0</v>
       </c>
     </row>
     <row r="3">
@@ -195,7 +199,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>252.0</v>
+        <v>565.0</v>
       </c>
     </row>
     <row r="4">
@@ -209,7 +213,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>2651.0</v>
+        <v>2846.0</v>
       </c>
     </row>
     <row r="5">
@@ -223,7 +227,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>607.0</v>
+        <v>623.0</v>
       </c>
     </row>
     <row r="6">
@@ -237,7 +241,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>702.0</v>
+        <v>747.0</v>
       </c>
     </row>
     <row r="7">
@@ -251,7 +255,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>741.0</v>
+        <v>628.0</v>
       </c>
     </row>
     <row r="8">
@@ -265,7 +269,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>12441.0</v>
+        <v>3899.0</v>
       </c>
     </row>
     <row r="9">
@@ -279,7 +283,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>3766.0</v>
+        <v>3854.0</v>
       </c>
     </row>
     <row r="10">
@@ -293,7 +297,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>6928.0</v>
+        <v>7738.0</v>
       </c>
     </row>
     <row r="11">
@@ -307,7 +311,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>42290.0</v>
+        <v>43232.0</v>
       </c>
     </row>
     <row r="12">
@@ -315,18 +319,18 @@
         <v>18</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>43089.0</v>
+        <v>29924.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>5</v>
@@ -335,12 +339,12 @@
         <v>6</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>16303.0</v>
+        <v>18171.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>5</v>
@@ -349,12 +353,12 @@
         <v>6</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>43537.0</v>
+        <v>46234.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>5</v>
@@ -363,12 +367,12 @@
         <v>6</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>11586.0</v>
+        <v>10604.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>5</v>
@@ -377,12 +381,12 @@
         <v>6</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>20829.0</v>
+        <v>17203.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>5</v>
@@ -391,12 +395,12 @@
         <v>6</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>65224.0</v>
+        <v>58993.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>5</v>
@@ -405,12 +409,12 @@
         <v>6</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>29332.0</v>
+        <v>20544.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>5</v>
@@ -419,21 +423,91 @@
         <v>6</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>17661.0</v>
+        <v>11537.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>50165.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B20" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D20" t="n" s="0">
-        <v>33027.0</v>
+      <c r="B21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>33379.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>4791.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>34318.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>18569.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>21150.0</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>Test Name</t>
   </si>
@@ -41,41 +41,89 @@
     <t>testnegativepassword</t>
   </si>
   <si>
-    <t>testnegativeuserid</t>
-  </si>
-  <si>
-    <t>testpositivepassword</t>
-  </si>
-  <si>
-    <t>testpositiveuserid</t>
-  </si>
-  <si>
-    <t>Test_Sucessfull_Login</t>
-  </si>
-  <si>
-    <t>Test_Registration_page</t>
-  </si>
-  <si>
-    <t>test_create_reservation_new_mode_mandatory_fields_TC_RS_01</t>
-  </si>
-  <si>
-    <t>test_open_and_amend_saved_reservation_TC_RS_02</t>
-  </si>
-  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>Expected condition failed: waiting for element to be clickable: By.xpath: (//div[@aria-rowindex="6"])[23] (tried for 20 second(s) with 500 milliseconds interval)
+    <t>stale element reference: stale element not found
+  (Session info: chrome=137.0.7151.104)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#stale-element-reference-exception
 Build info: version: '4.33.0', revision: '2c6aaad03a'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57523}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57523/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 01cb6574d90a2c3b2796e9da7920c48a</t>
+Command: [2e6deab8721d44eb4401ab1b5f0b7762, sendKeysToElement {value=[Ljava.lang.CharSequence;@4b21844c, id=f.39131F08B29DABD050D9B3B13353B8C1.d.41F8F217E9326523FDAE896F7B068FB7.e.131}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52309}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52309/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (2e6deab8721d44eb4401ab1b5f0b7762)] -&gt; id: UserName]
+Session ID: 2e6deab8721d44eb4401ab1b5f0b7762</t>
+  </si>
+  <si>
+    <t>testnegativeuserid</t>
+  </si>
+  <si>
+    <t>stale element reference: stale element not found
+  (Session info: chrome=137.0.7151.104)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#stale-element-reference-exception
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [2e6deab8721d44eb4401ab1b5f0b7762, sendKeysToElement {value=[Ljava.lang.CharSequence;@407cf41, id=f.39131F08B29DABD050D9B3B13353B8C1.d.6318375295CD89B9938F3A3022A18F67.e.195}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52309}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52309/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (2e6deab8721d44eb4401ab1b5f0b7762)] -&gt; id: UserName]
+Session ID: 2e6deab8721d44eb4401ab1b5f0b7762</t>
+  </si>
+  <si>
+    <t>testpositivepassword</t>
+  </si>
+  <si>
+    <t>stale element reference: stale element not found
+  (Session info: chrome=137.0.7151.104)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#stale-element-reference-exception
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [2e6deab8721d44eb4401ab1b5f0b7762, sendKeysToElement {value=[Ljava.lang.CharSequence;@21a5fd96, id=f.39131F08B29DABD050D9B3B13353B8C1.d.9463921FDC06A224248C1D3491810A7F.e.255}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52309}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52309/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (2e6deab8721d44eb4401ab1b5f0b7762)] -&gt; id: UserName]
+Session ID: 2e6deab8721d44eb4401ab1b5f0b7762</t>
+  </si>
+  <si>
+    <t>testpositiveuserid</t>
+  </si>
+  <si>
+    <t>stale element reference: stale element not found
+  (Session info: chrome=137.0.7151.104)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#stale-element-reference-exception
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [2e6deab8721d44eb4401ab1b5f0b7762, sendKeysToElement {value=[Ljava.lang.CharSequence;@65f87a2c, id=f.39131F08B29DABD050D9B3B13353B8C1.d.FCD9B4BEDC8ABCE7AD2CE274DDD5C141.e.312}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52309}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52309/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (2e6deab8721d44eb4401ab1b5f0b7762)] -&gt; id: UserName]
+Session ID: 2e6deab8721d44eb4401ab1b5f0b7762</t>
+  </si>
+  <si>
+    <t>Test_Sucessfull_Login</t>
+  </si>
+  <si>
+    <t>Test_Registration_page</t>
+  </si>
+  <si>
+    <t>test_create_reservation_new_mode_mandatory_fields_TC_RS_01</t>
+  </si>
+  <si>
+    <t>test_open_and_amend_saved_reservation_TC_RS_02</t>
   </si>
   <si>
     <t>test_verify_updated_details_open_mode_TC_RS_03</t>
   </si>
   <si>
+    <t>Expected condition failed: waiting for element to be clickable: By.xpath: (//button[@class='webix_button webix_img_btn'])[1] (tried for 20 second(s) with 500 milliseconds interval)
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52351}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52351/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9ec117bc3503337ceccf1eff66f10492</t>
+  </si>
+  <si>
     <t>test_cancel_reservation_with_reason_TC_RS_04</t>
   </si>
   <si>
@@ -97,6 +145,9 @@
     <t>test_split_reservation_multiple_rooms_TC_RS_07</t>
   </si>
   <si>
+    <t>The number of child grid cells inside the parent column is not 2. expected [2] but found [1]</t>
+  </si>
+  <si>
     <t>test_ledger_transactions_modify_open_mode_TC_RS_12</t>
   </si>
   <si>
@@ -110,6 +161,34 @@
   </si>
   <si>
     <t>test_verify_registration_card_and_email_after_checkin_TC_CI_04</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button type="button" class="webix_button" disabled="true"&gt;...&lt;/button&gt; is not clickable at point (1025, 48). Other element would receive the click: &lt;div class="webix_disabled"&gt;&lt;/div&gt;
+  (Session info: chrome=137.0.7151.104)
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [6550957132f8547e6a491618d1b8fbac, clickElement {id=f.473761C3E84890658E740FD6827DD09B.d.94F4F1188DD893C77476F6BA22E516B0.e.881}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52618}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52618/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (6550957132f8547e6a491618d1b8fbac)] -&gt; xpath: //button[text()="Select"]]
+Session ID: 6550957132f8547e6a491618d1b8fbac</t>
+  </si>
+  <si>
+    <t>test_create_walkin_reservation_and_checkin_TC_WI_01</t>
+  </si>
+  <si>
+    <t>test_print_registration_card_with_filters_TC_RC_01</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button type="button" class="webix_button" disabled="true"&gt;...&lt;/button&gt; is not clickable at point (1025, 48). Other element would receive the click: &lt;div class="webix_disabled"&gt;&lt;/div&gt;
+  (Session info: chrome=137.0.7151.104)
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [6550957132f8547e6a491618d1b8fbac, clickElement {id=f.473761C3E84890658E740FD6827DD09B.d.9DDF0D3590073596115E8C5ED7B38B5C.e.1253}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52618}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52618/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (6550957132f8547e6a491618d1b8fbac)] -&gt; xpath: //button[text()="Select"]]
+Session ID: 6550957132f8547e6a491618d1b8fbac</t>
   </si>
 </sst>
 </file>
@@ -154,7 +233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -185,7 +264,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>423.0</v>
+        <v>790.0</v>
       </c>
     </row>
     <row r="3">
@@ -199,7 +278,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>565.0</v>
+        <v>745.0</v>
       </c>
     </row>
     <row r="4">
@@ -207,60 +286,60 @@
         <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>2846.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>623.0</v>
+        <v>134.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>747.0</v>
+        <v>138.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>628.0</v>
+        <v>161.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>5</v>
@@ -269,12 +348,12 @@
         <v>6</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>3899.0</v>
+        <v>3399.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>5</v>
@@ -283,12 +362,12 @@
         <v>6</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>3854.0</v>
+        <v>2834.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>5</v>
@@ -297,40 +376,40 @@
         <v>6</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>7738.0</v>
+        <v>8772.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>43232.0</v>
+        <v>37243.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>29924.0</v>
+        <v>54183.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>5</v>
@@ -339,12 +418,12 @@
         <v>6</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>18171.0</v>
+        <v>22219.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>5</v>
@@ -353,12 +432,12 @@
         <v>6</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>46234.0</v>
+        <v>50939.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>5</v>
@@ -367,12 +446,12 @@
         <v>6</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>10604.0</v>
+        <v>13220.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>5</v>
@@ -381,12 +460,12 @@
         <v>6</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>17203.0</v>
+        <v>19496.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>5</v>
@@ -395,12 +474,12 @@
         <v>6</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>58993.0</v>
+        <v>69990.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>5</v>
@@ -409,26 +488,26 @@
         <v>6</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>20544.0</v>
+        <v>46234.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>11537.0</v>
+        <v>18212.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>5</v>
@@ -437,12 +516,12 @@
         <v>6</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>50165.0</v>
+        <v>57664.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>5</v>
@@ -451,12 +530,12 @@
         <v>6</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>33379.0</v>
+        <v>56515.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>5</v>
@@ -465,12 +544,12 @@
         <v>6</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>4791.0</v>
+        <v>3415.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>5</v>
@@ -479,12 +558,12 @@
         <v>6</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>34318.0</v>
+        <v>45961.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>5</v>
@@ -493,21 +572,49 @@
         <v>6</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>18569.0</v>
+        <v>28263.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>21150.0</v>
+        <v>35756.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>18450.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>199370.0</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>Test Name</t>
   </si>
@@ -59,41 +59,104 @@
     <t>test_create_reservation_new_mode_mandatory_fields_TC_RS_01</t>
   </si>
   <si>
+    <t>test_open_and_amend_saved_reservation_TC_RS_02</t>
+  </si>
+  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>Expected condition failed: waiting for element to be clickable: By.xpath: (//div[@aria-rowindex='5'])[1] (tried for 20 second(s) with 500 milliseconds interval)
-Build info: version: '4.33.0', revision: '2c6aaad03a'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50596}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50596/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c0a3319144b39b79015a622e76eb832e</t>
-  </si>
-  <si>
-    <t>test_open_and_amend_saved_reservation_TC_RS_02</t>
-  </si>
-  <si>
-    <t>test_verify_updated_details_open_mode_TC_RS_03</t>
-  </si>
-  <si>
-    <t>invalid session id: session deleted as the browser has closed the connection
-from disconnected: not connected to DevTools
+    <t>element not interactable
   (Session info: chrome=137.0.7151.104)
 Build info: version: '4.33.0', revision: '2c6aaad03a'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [c0a3319144b39b79015a622e76eb832e, findElement {value=(//div[@aria-rowindex='5'])[1], using=xpath}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50596}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50596/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c0a3319144b39b79015a622e76eb832e</t>
-  </si>
-  <si>
-    <t>invalid session id
+Command: [0acb488fae9f287df41ec092f8e9254e, sendKeysToElement {id=f.AF2C93AABF9847FE54996401D67AD75B.d.2F16E70E36473079C9EA1F82A37F3B6D.e.570, value=[Ljava.lang.CharSequence;@470a659f}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50002}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50002/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (0acb488fae9f287df41ec092f8e9254e)] -&gt; xpath: //label[text()='Nights']/following-sibling::input]
+Session ID: 0acb488fae9f287df41ec092f8e9254e</t>
+  </si>
+  <si>
+    <t>test_verify_updated_details_open_mode_TC_RS_03</t>
+  </si>
+  <si>
+    <t>element not interactable
+  (Session info: chrome=137.0.7151.104)
 Build info: version: '4.33.0', revision: '2c6aaad03a'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [c0a3319144b39b79015a622e76eb832e, screenshot {}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50596}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50596/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c0a3319144b39b79015a622e76eb832e</t>
+Command: [0acb488fae9f287df41ec092f8e9254e, sendKeysToElement {id=f.AF2C93AABF9847FE54996401D67AD75B.d.4CF5B9E943BB374C40D3A652948E9783.e.842, value=[Ljava.lang.CharSequence;@378cfecf}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50002}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50002/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (0acb488fae9f287df41ec092f8e9254e)] -&gt; xpath: //label[text()='Nights']/following-sibling::input]
+Session ID: 0acb488fae9f287df41ec092f8e9254e</t>
+  </si>
+  <si>
+    <t>test_cancel_reservation_with_reason_TC_RS_04</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of element located by By.xpath: //span[@class=' fa fa-times'] (tried for 20 second(s) with 500 milliseconds interval)
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50002}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50002/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0acb488fae9f287df41ec092f8e9254e</t>
+  </si>
+  <si>
+    <t>test_verify_cancelled_reservation_visibility_TC_RS_05</t>
+  </si>
+  <si>
+    <t>test_create_addon_reservation_from_existing_TC_RS_06</t>
+  </si>
+  <si>
+    <t>test_verify_reservation_view_mode_TC_RS_11</t>
+  </si>
+  <si>
+    <t>test_reinstate_cancelled_reservation_TC_RS_08</t>
+  </si>
+  <si>
+    <t>test_addon_reservation_after_account_date_TC_RS_10</t>
+  </si>
+  <si>
+    <t>test_split_reservation_multiple_rooms_TC_RS_07</t>
+  </si>
+  <si>
+    <t>test_ledger_transactions_modify_open_mode_TC_RS_12</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;input aria-required="true" maxlength="18" id="1750335887270" type="text" value="" style="width:111px;text-align:right;" oninput="fnCurFormatDecimalHtmlContFoResAdv(this, event,'L','.','3') "&gt; is not clickable at point (175, 297). Other element would receive the click: &lt;div class="webix_modal" style="z-index: 100;"&gt;&lt;/div&gt;
+  (Session info: chrome=137.0.7151.104)
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0acb488fae9f287df41ec092f8e9254e, clickElement {id=f.07A9DF0BD0002ECFDE14429F4BA2FCD6.d.E37AE0C1381DAFCB967497FAAAD16CC0.e.3380}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50002}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50002/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (0acb488fae9f287df41ec092f8e9254e)] -&gt; xpath: //label[text()='Amount']/following-sibling::input[@type='text']]
+Session ID: 0acb488fae9f287df41ec092f8e9254e</t>
+  </si>
+  <si>
+    <t>test_ledger_transactions_modify_open_mode_TC_RS_12_Advance</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of element located by By.xpath: //button[text()='Ledger'] (tried for 20 second(s) with 500 milliseconds interval)
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50002}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50002/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0acb488fae9f287df41ec092f8e9254e</t>
+  </si>
+  <si>
+    <t>test_checkin_allowed_on_matching_arrival_and_account_date_TC_CI_01</t>
+  </si>
+  <si>
+    <t>test_perform_checkin_on_matching_dates_TC_CI_02</t>
+  </si>
+  <si>
+    <t>test_verify_registration_card_and_email_after_checkin_TC_CI_04</t>
+  </si>
+  <si>
+    <t>test_create_walkin_reservation_and_checkin_TC_WI_01</t>
+  </si>
+  <si>
+    <t>test_print_registration_card_with_filters_TC_RC_01</t>
   </si>
 </sst>
 </file>
@@ -138,7 +201,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -169,7 +232,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>457.0</v>
+        <v>387.0</v>
       </c>
     </row>
     <row r="3">
@@ -183,7 +246,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>372.0</v>
+        <v>397.0</v>
       </c>
     </row>
     <row r="4">
@@ -197,7 +260,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>2887.0</v>
+        <v>2916.0</v>
       </c>
     </row>
     <row r="5">
@@ -211,7 +274,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>665.0</v>
+        <v>653.0</v>
       </c>
     </row>
     <row r="6">
@@ -225,7 +288,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>818.0</v>
+        <v>875.0</v>
       </c>
     </row>
     <row r="7">
@@ -239,7 +302,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>814.0</v>
+        <v>768.0</v>
       </c>
     </row>
     <row r="8">
@@ -253,7 +316,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>11605.0</v>
+        <v>5123.0</v>
       </c>
     </row>
     <row r="9">
@@ -267,7 +330,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>22004.0</v>
+        <v>4740.0</v>
       </c>
     </row>
     <row r="10">
@@ -275,27 +338,27 @@
         <v>14</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>102829.0</v>
+        <v>8246.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>16</v>
-      </c>
       <c r="D11" t="n" s="0">
-        <v>87304.0</v>
+        <v>18301.0</v>
       </c>
     </row>
     <row r="12">
@@ -303,27 +366,223 @@
         <v>18</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>82114.0</v>
+        <v>18187.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>82724.0</v>
+        <v>36330.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>48789.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>12256.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>25828.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>71265.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>28469.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>17285.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>37671.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>38956.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>7966.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>44861.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>27167.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>32686.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>15015.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>60689.0</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
   <si>
     <t>Test Name</t>
   </si>
@@ -62,95 +62,68 @@
     <t>test_open_and_amend_saved_reservation_TC_RS_02</t>
   </si>
   <si>
+    <t>test_verify_updated_details_open_mode_TC_RS_03</t>
+  </si>
+  <si>
+    <t>test_cancel_reservation_with_reason_TC_RS_04</t>
+  </si>
+  <si>
+    <t>test_verify_cancelled_reservation_visibility_TC_RS_05</t>
+  </si>
+  <si>
+    <t>test_create_addon_reservation_from_existing_TC_RS_06</t>
+  </si>
+  <si>
+    <t>test_verify_reservation_view_mode_TC_RS_11</t>
+  </si>
+  <si>
+    <t>test_reinstate_cancelled_reservation_TC_RS_08</t>
+  </si>
+  <si>
+    <t>test_addon_reservation_after_account_date_TC_RS_10</t>
+  </si>
+  <si>
+    <t>test_split_reservation_multiple_rooms_TC_RS_07</t>
+  </si>
+  <si>
+    <t>test_ledger_transactions_modify_open_mode_TC_RS_12</t>
+  </si>
+  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>element not interactable
+    <t>element click intercepted: Element &lt;button type="button" class="webix_button" disabled="true"&gt;...&lt;/button&gt; is not clickable at point (1025, 48). Other element would receive the click: &lt;div class="webix_disabled"&gt;&lt;/div&gt;
   (Session info: chrome=137.0.7151.104)
 Build info: version: '4.33.0', revision: '2c6aaad03a'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [0acb488fae9f287df41ec092f8e9254e, sendKeysToElement {id=f.AF2C93AABF9847FE54996401D67AD75B.d.2F16E70E36473079C9EA1F82A37F3B6D.e.570, value=[Ljava.lang.CharSequence;@470a659f}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50002}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50002/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (0acb488fae9f287df41ec092f8e9254e)] -&gt; xpath: //label[text()='Nights']/following-sibling::input]
-Session ID: 0acb488fae9f287df41ec092f8e9254e</t>
-  </si>
-  <si>
-    <t>test_verify_updated_details_open_mode_TC_RS_03</t>
-  </si>
-  <si>
-    <t>element not interactable
+Command: [322eed9d981ef45a3f3d3b820bcb38f8, clickElement {id=f.EC089EE35B3E1B5C370C3BDFA283C538.d.A01A9DB9B092EE85D71832013CD408A0.e.3729}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55030}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55030/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (322eed9d981ef45a3f3d3b820bcb38f8)] -&gt; xpath: //button[text()='Select']]
+Session ID: 322eed9d981ef45a3f3d3b820bcb38f8</t>
+  </si>
+  <si>
+    <t>test_ledger_transactions_modify_open_mode_TC_RS_12_Advance</t>
+  </si>
+  <si>
+    <t>test_checkin_allowed_on_matching_arrival_and_account_date_TC_CI_01</t>
+  </si>
+  <si>
+    <t>test_perform_checkin_on_matching_dates_TC_CI_02</t>
+  </si>
+  <si>
+    <t>test_verify_registration_card_and_email_after_checkin_TC_CI_04</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button type="button" class="webix_button" disabled="true"&gt;...&lt;/button&gt; is not clickable at point (1025, 48). Other element would receive the click: &lt;div class="webix_disabled"&gt;&lt;/div&gt;
   (Session info: chrome=137.0.7151.104)
 Build info: version: '4.33.0', revision: '2c6aaad03a'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [0acb488fae9f287df41ec092f8e9254e, sendKeysToElement {id=f.AF2C93AABF9847FE54996401D67AD75B.d.4CF5B9E943BB374C40D3A652948E9783.e.842, value=[Ljava.lang.CharSequence;@378cfecf}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50002}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50002/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (0acb488fae9f287df41ec092f8e9254e)] -&gt; xpath: //label[text()='Nights']/following-sibling::input]
-Session ID: 0acb488fae9f287df41ec092f8e9254e</t>
-  </si>
-  <si>
-    <t>test_cancel_reservation_with_reason_TC_RS_04</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for visibility of element located by By.xpath: //span[@class=' fa fa-times'] (tried for 20 second(s) with 500 milliseconds interval)
-Build info: version: '4.33.0', revision: '2c6aaad03a'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50002}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50002/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 0acb488fae9f287df41ec092f8e9254e</t>
-  </si>
-  <si>
-    <t>test_verify_cancelled_reservation_visibility_TC_RS_05</t>
-  </si>
-  <si>
-    <t>test_create_addon_reservation_from_existing_TC_RS_06</t>
-  </si>
-  <si>
-    <t>test_verify_reservation_view_mode_TC_RS_11</t>
-  </si>
-  <si>
-    <t>test_reinstate_cancelled_reservation_TC_RS_08</t>
-  </si>
-  <si>
-    <t>test_addon_reservation_after_account_date_TC_RS_10</t>
-  </si>
-  <si>
-    <t>test_split_reservation_multiple_rooms_TC_RS_07</t>
-  </si>
-  <si>
-    <t>test_ledger_transactions_modify_open_mode_TC_RS_12</t>
-  </si>
-  <si>
-    <t>element click intercepted: Element &lt;input aria-required="true" maxlength="18" id="1750335887270" type="text" value="" style="width:111px;text-align:right;" oninput="fnCurFormatDecimalHtmlContFoResAdv(this, event,'L','.','3') "&gt; is not clickable at point (175, 297). Other element would receive the click: &lt;div class="webix_modal" style="z-index: 100;"&gt;&lt;/div&gt;
-  (Session info: chrome=137.0.7151.104)
-Build info: version: '4.33.0', revision: '2c6aaad03a'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [0acb488fae9f287df41ec092f8e9254e, clickElement {id=f.07A9DF0BD0002ECFDE14429F4BA2FCD6.d.E37AE0C1381DAFCB967497FAAAD16CC0.e.3380}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50002}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50002/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (0acb488fae9f287df41ec092f8e9254e)] -&gt; xpath: //label[text()='Amount']/following-sibling::input[@type='text']]
-Session ID: 0acb488fae9f287df41ec092f8e9254e</t>
-  </si>
-  <si>
-    <t>test_ledger_transactions_modify_open_mode_TC_RS_12_Advance</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for visibility of element located by By.xpath: //button[text()='Ledger'] (tried for 20 second(s) with 500 milliseconds interval)
-Build info: version: '4.33.0', revision: '2c6aaad03a'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50002}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50002/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 0acb488fae9f287df41ec092f8e9254e</t>
-  </si>
-  <si>
-    <t>test_checkin_allowed_on_matching_arrival_and_account_date_TC_CI_01</t>
-  </si>
-  <si>
-    <t>test_perform_checkin_on_matching_dates_TC_CI_02</t>
-  </si>
-  <si>
-    <t>test_verify_registration_card_and_email_after_checkin_TC_CI_04</t>
+Command: [d3d3133cca3d36b5da5c6860a71eceef, clickElement {id=f.08016CFBFDA50FF6EA4CEFF79B5BF998.d.3AD84F027704A5191D6FA8605BB64F54.e.924}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55241}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55241/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (d3d3133cca3d36b5da5c6860a71eceef)] -&gt; xpath: //button[text()="Select"]]
+Session ID: d3d3133cca3d36b5da5c6860a71eceef</t>
   </si>
   <si>
     <t>test_create_walkin_reservation_and_checkin_TC_WI_01</t>
@@ -232,7 +205,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>387.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="3">
@@ -246,7 +219,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>397.0</v>
+        <v>162.0</v>
       </c>
     </row>
     <row r="4">
@@ -260,7 +233,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>2916.0</v>
+        <v>2359.0</v>
       </c>
     </row>
     <row r="5">
@@ -274,7 +247,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>653.0</v>
+        <v>246.0</v>
       </c>
     </row>
     <row r="6">
@@ -288,7 +261,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>875.0</v>
+        <v>301.0</v>
       </c>
     </row>
     <row r="7">
@@ -302,7 +275,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>768.0</v>
+        <v>273.0</v>
       </c>
     </row>
     <row r="8">
@@ -316,7 +289,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>5123.0</v>
+        <v>2277.0</v>
       </c>
     </row>
     <row r="9">
@@ -330,7 +303,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>4740.0</v>
+        <v>2113.0</v>
       </c>
     </row>
     <row r="10">
@@ -344,7 +317,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>8246.0</v>
+        <v>4905.0</v>
       </c>
     </row>
     <row r="11">
@@ -352,46 +325,46 @@
         <v>15</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>18301.0</v>
+        <v>22900.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>18187.0</v>
+        <v>21698.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>36330.0</v>
+        <v>14214.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>5</v>
@@ -400,12 +373,12 @@
         <v>6</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>48789.0</v>
+        <v>40456.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>5</v>
@@ -414,12 +387,12 @@
         <v>6</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>12256.0</v>
+        <v>6148.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>5</v>
@@ -428,12 +401,12 @@
         <v>6</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>25828.0</v>
+        <v>14854.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>5</v>
@@ -442,12 +415,12 @@
         <v>6</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>71265.0</v>
+        <v>54203.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>5</v>
@@ -456,12 +429,12 @@
         <v>6</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>28469.0</v>
+        <v>27122.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>5</v>
@@ -470,35 +443,35 @@
         <v>6</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>17285.0</v>
+        <v>9749.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>37671.0</v>
+        <v>34085.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>38956.0</v>
+        <v>24380.0</v>
       </c>
     </row>
     <row r="22">
@@ -512,12 +485,12 @@
         <v>6</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>7966.0</v>
+        <v>2030.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>5</v>
@@ -526,12 +499,12 @@
         <v>6</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>44861.0</v>
+        <v>31862.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>5</v>
@@ -540,26 +513,26 @@
         <v>6</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>27167.0</v>
+        <v>19633.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>32686.0</v>
+        <v>14737.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>5</v>
@@ -568,12 +541,12 @@
         <v>6</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>15015.0</v>
+        <v>6859.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>5</v>
@@ -582,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>60689.0</v>
+        <v>25749.0</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
   <si>
     <t>Test Name</t>
   </si>
@@ -48,6 +48,99 @@
   </si>
   <si>
     <t>testpositiveuserid</t>
+  </si>
+  <si>
+    <t>Test_Sucessfull_Login</t>
+  </si>
+  <si>
+    <t>Test_Registration_page</t>
+  </si>
+  <si>
+    <t>test_create_reservation_new_mode_mandatory_fields_TC_RS_01</t>
+  </si>
+  <si>
+    <t>test_open_and_amend_saved_reservation_TC_RS_02</t>
+  </si>
+  <si>
+    <t>test_verify_updated_details_open_mode_TC_RS_03</t>
+  </si>
+  <si>
+    <t>test_cancel_reservation_with_reason_TC_RS_04</t>
+  </si>
+  <si>
+    <t>test_verify_cancelled_reservation_visibility_TC_RS_05</t>
+  </si>
+  <si>
+    <t>test_create_addon_reservation_from_existing_TC_RS_06</t>
+  </si>
+  <si>
+    <t>test_verify_reservation_view_mode_TC_RS_11</t>
+  </si>
+  <si>
+    <t>test_reinstate_cancelled_reservation_TC_RS_08</t>
+  </si>
+  <si>
+    <t>test_addon_reservation_after_account_date_TC_RS_10</t>
+  </si>
+  <si>
+    <t>test_split_reservation_multiple_rooms_TC_RS_07</t>
+  </si>
+  <si>
+    <t>test_ledger_transactions_modify_open_mode_TC_RS_12</t>
+  </si>
+  <si>
+    <t>test_ledger_transactions_modify_open_mode_TC_RS_12_Advance</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>stale element reference: stale element not found
+  (Session info: chrome=137.0.7151.104)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#stale-element-reference-exception
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ee2c1f0a32a16bb001a654cdd81255e2, sendKeysToElement {id=f.B2D9934204E63459361A5828375174E0.d.DDC67AB0E50B1F6DF54BDEA38B374AA7.e.37, value=[Ljava.lang.CharSequence;@701c413}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55054}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55054/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (ee2c1f0a32a16bb001a654cdd81255e2)] -&gt; id: Password]
+Session ID: ee2c1f0a32a16bb001a654cdd81255e2</t>
+  </si>
+  <si>
+    <t>test_checkin_allowed_on_matching_arrival_and_account_date_TC_CI_01</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>test_perform_checkin_on_matching_dates_TC_CI_02</t>
+  </si>
+  <si>
+    <t>test_verify_registration_card_and_email_after_checkin_TC_CI_04</t>
+  </si>
+  <si>
+    <t>test_create_walkin_reservation_and_checkin_TC_WI_01</t>
+  </si>
+  <si>
+    <t>test_print_registration_card_with_filters_TC_RC_01</t>
+  </si>
+  <si>
+    <t>stale element reference: stale element not found
+  (Session info: chrome=137.0.7151.104)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#stale-element-reference-exception
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [91de46dbf056ad56a6e96ad7af57915f, sendKeysToElement {id=f.879ADD73FB6A82B0C5E78F28B9C001E7.d.CD5757ED45DFD8728DE649A8B21E6DFB.e.39, value=[Ljava.lang.CharSequence;@69860811}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.104, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55087}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55087/devtoo..., se:cdpVersion: 137.0.7151.104, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (91de46dbf056ad56a6e96ad7af57915f)] -&gt; id: Password]
+Session ID: 91de46dbf056ad56a6e96ad7af57915f</t>
+  </si>
+  <si>
+    <t>test_select_advance_type_and_reservation_room_TC_AD_01_Reservation</t>
+  </si>
+  <si>
+    <t>test_select_advance_type_and_reservation_room_TC_AD_01_CheckIN</t>
   </si>
 </sst>
 </file>
@@ -92,7 +185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -123,7 +216,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>384.0</v>
+        <v>467.0</v>
       </c>
     </row>
     <row r="3">
@@ -137,7 +230,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>400.0</v>
+        <v>405.0</v>
       </c>
     </row>
     <row r="4">
@@ -151,7 +244,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>2961.0</v>
+        <v>2829.0</v>
       </c>
     </row>
     <row r="5">
@@ -165,7 +258,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>607.0</v>
+        <v>589.0</v>
       </c>
     </row>
     <row r="6">
@@ -179,7 +272,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>900.0</v>
+        <v>695.0</v>
       </c>
     </row>
     <row r="7">
@@ -193,7 +286,329 @@
         <v>6</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>749.0</v>
+        <v>594.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>4725.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>3314.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>8698.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>40238.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>29541.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>17719.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>46938.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>11080.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>19904.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>65989.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>41403.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>15807.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>55731.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>33038.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>1507.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>1547.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="55">
   <si>
     <t>Test Name</t>
   </si>
@@ -26,13 +26,137 @@
     <t>Duration (ms)</t>
   </si>
   <si>
+    <t>testloginpage</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>testnegativelogin</t>
+  </si>
+  <si>
+    <t>testnegativepassword</t>
+  </si>
+  <si>
+    <t>testnegativeuserid</t>
+  </si>
+  <si>
+    <t>testpositivepassword</t>
+  </si>
+  <si>
+    <t>testpositiveuserid</t>
+  </si>
+  <si>
     <t>Test_Sucessfull_Login</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t/>
+    <t>Test_Registration_page</t>
+  </si>
+  <si>
+    <t>test_create_reservation_new_mode_mandatory_fields_TC_RS_01</t>
+  </si>
+  <si>
+    <t>test_open_and_amend_saved_reservation_TC_RS_02</t>
+  </si>
+  <si>
+    <t>test_verify_updated_details_open_mode_TC_RS_03</t>
+  </si>
+  <si>
+    <t>test_cancel_reservation_with_reason_TC_RS_04</t>
+  </si>
+  <si>
+    <t>test_verify_cancelled_reservation_visibility_TC_RS_05</t>
+  </si>
+  <si>
+    <t>test_create_addon_reservation_from_existing_TC_RS_06</t>
+  </si>
+  <si>
+    <t>test_verify_reservation_view_mode_TC_RS_11</t>
+  </si>
+  <si>
+    <t>test_reinstate_cancelled_reservation_TC_RS_08</t>
+  </si>
+  <si>
+    <t>test_addon_reservation_after_account_date_TC_RS_10</t>
+  </si>
+  <si>
+    <t>test_split_reservation_multiple_rooms_TC_RS_07</t>
+  </si>
+  <si>
+    <t>test_ledger_transactions_modify_open_mode_TC_RS_12</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;span style="right:2px;height:22px;padding-top:2px;" class="webix_input_icon wxi-search"&gt;&lt;/span&gt; is not clickable at point (364, 132). Other element would receive the click: &lt;div class="webix_modal" style="z-index: 100;"&gt;&lt;/div&gt;
+  (Session info: chrome=137.0.7151.122)
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [b30c0b16e5ef8bf3d6af3d75e0abd398, clickElement {id=f.8BA8D96C3B897D3876193EDA7B8D9F69.d.A529EC0C428CCEC4B4D595C04E5B6EB6.e.3710}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55177}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55177/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (b30c0b16e5ef8bf3d6af3d75e0abd398)] -&gt; xpath: /html/body/div[3]/div/div/div[2]/div/div/div/div/div/div/div[1]/div[1]/div[2]/div/div[2]/div/div[1]/div/span]
+Session ID: b30c0b16e5ef8bf3d6af3d75e0abd398</t>
+  </si>
+  <si>
+    <t>test_ledger_transactions_modify_open_mode_TC_RS_12_Advance</t>
+  </si>
+  <si>
+    <t>test_checkin_allowed_on_matching_arrival_and_account_date_TC_CI_01</t>
+  </si>
+  <si>
+    <t>test_perform_checkin_on_matching_dates_TC_CI_02</t>
+  </si>
+  <si>
+    <t>test_verify_registration_card_and_email_after_checkin_TC_CI_04</t>
+  </si>
+  <si>
+    <t>test_create_walkin_reservation_and_checkin_TC_WI_01</t>
+  </si>
+  <si>
+    <t>test_print_registration_card_with_filters_TC_RC_01</t>
+  </si>
+  <si>
+    <t>stale element reference: stale element not found
+  (Session info: chrome=137.0.7151.122)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#stale-element-reference-exception
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [caa7443df75543452536016e90fd7f35, sendKeysToElement {value=[Ljava.lang.CharSequence;@24afdf18, id=f.4BC404FDFFD38EABED11D34B1BE3C212.d.61A6B22B6AB564E211CC6EC0D06B688E.e.46}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55725}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55725/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (caa7443df75543452536016e90fd7f35)] -&gt; id: Password]
+Session ID: caa7443df75543452536016e90fd7f35</t>
+  </si>
+  <si>
+    <t>test_select_advance_type_and_reservation_room_TC_AD_01_Reservation</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>test_select_advance_type_and_reservation_room_TC_AD_01_CheckIN</t>
+  </si>
+  <si>
+    <t>test_view_records_needing_room_assignment_by_date_TC_RA_01</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;span role="button" tabindex="0" class="webix_cal_icon_today webix_cal_icon"&gt;...&lt;/span&gt; is not clickable at point (516, 333). Other element would receive the click: &lt;span aria-hidden="true" class="webix_cal_day_inner" style="display:inline-block; width:27px; height:27px; line-height:27px;"&gt;...&lt;/span&gt;
+  (Session info: chrome=137.0.7151.122)
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e3edb7eca11e0045b224ff248ee77221, clickElement {id=f.B4540B29B67BC03F6E2CF80C95AF793A.d.E5735126A006B672B37BBCABECC30DDE.e.253}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55781}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55781/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (e3edb7eca11e0045b224ff248ee77221)] -&gt; xpath: //span[text()="Today"]]
+Session ID: e3edb7eca11e0045b224ff248ee77221</t>
+  </si>
+  <si>
+    <t>test_assign_room_number_manually_TC_RA_02</t>
   </si>
   <si>
     <t>test_verify_current_inhouse_guests_displayed_TC_GS_01</t>
@@ -48,6 +172,76 @@
   </si>
   <si>
     <t>test_verify_guests_displayed_in_sequence_order_TC_GS_05</t>
+  </si>
+  <si>
+    <t>test_edit_guest_name_and_personal_details_TC_GIH_01</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button type="button" class="webix_button" disabled="true"&gt;...&lt;/button&gt; is not clickable at point (1025, 48). Other element would receive the click: &lt;div class="webix_disabled"&gt;&lt;/div&gt;
+  (Session info: chrome=137.0.7151.122)
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [516a50cd7e9a3dfda2a47cb4b13c7d53, clickElement {id=f.CB1753BD95BD56C5906E6D755EB86398.d.FA0484A3BF106D464CEF68AB5ED7AC22.e.422}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56072}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56072/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (516a50cd7e9a3dfda2a47cb4b13c7d53)] -&gt; xpath: //button[text()='Select']]
+Session ID: 516a50cd7e9a3dfda2a47cb4b13c7d53</t>
+  </si>
+  <si>
+    <t>test_modify_segment_company_guest_type_and_agent_TC_GIH_02</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button type="button" class="webix_button" disabled="true"&gt;...&lt;/button&gt; is not clickable at point (1025, 48). Other element would receive the click: &lt;div class="webix_disabled"&gt;&lt;/div&gt;
+  (Session info: chrome=137.0.7151.122)
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [516a50cd7e9a3dfda2a47cb4b13c7d53, clickElement {id=f.CB1753BD95BD56C5906E6D755EB86398.d.81E01EC64F7CBB000BFA0F93AAA2147D.e.685}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56072}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56072/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (516a50cd7e9a3dfda2a47cb4b13c7d53)] -&gt; xpath: //button[text()='Select']]
+Session ID: 516a50cd7e9a3dfda2a47cb4b13c7d53</t>
+  </si>
+  <si>
+    <t>test_edit_rate_routing_post_bar_and_split_TC_GIH_03</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;span class="fa fa-save"&gt;&lt;/span&gt; is not clickable at point (1256, 14). Other element would receive the click: &lt;img src="/images/HeaderIcons/user.svg"&gt;
+  (Session info: chrome=137.0.7151.122)
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [516a50cd7e9a3dfda2a47cb4b13c7d53, clickElement {id=f.CB1753BD95BD56C5906E6D755EB86398.d.B1CC8808C4D9A22FBC037339A11DCEB9.e.798}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56072}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56072/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (516a50cd7e9a3dfda2a47cb4b13c7d53)] -&gt; xpath: //span[@class='fa fa-save']]
+Session ID: 516a50cd7e9a3dfda2a47cb4b13c7d53</t>
+  </si>
+  <si>
+    <t>test_modify_other_tab_fields_TC_GIH_04</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button type="button" class="webix_button" disabled="true"&gt;...&lt;/button&gt; is not clickable at point (1025, 48). Other element would receive the click: &lt;div class="webix_disabled"&gt;&lt;/div&gt;
+  (Session info: chrome=137.0.7151.122)
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [516a50cd7e9a3dfda2a47cb4b13c7d53, clickElement {id=f.CB1753BD95BD56C5906E6D755EB86398.d.2413ADB1F0877CD9C2DED30436C0782E.e.1199}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56072}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56072/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (516a50cd7e9a3dfda2a47cb4b13c7d53)] -&gt; xpath: //button[text()='Select']]
+Session ID: 516a50cd7e9a3dfda2a47cb4b13c7d53</t>
+  </si>
+  <si>
+    <t>test_view_inhouse_log_TC_GIH_05</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button type="button" class="webix_button" disabled="true"&gt;...&lt;/button&gt; is not clickable at point (1025, 48). Other element would receive the click: &lt;div class="webix_disabled"&gt;&lt;/div&gt;
+  (Session info: chrome=137.0.7151.122)
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [516a50cd7e9a3dfda2a47cb4b13c7d53, clickElement {id=f.CB1753BD95BD56C5906E6D755EB86398.d.B4A3FF3D64E312CCCB4709EF84972439.e.1492}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56072}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56072/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (516a50cd7e9a3dfda2a47cb4b13c7d53)] -&gt; xpath: //button[text()='Select']]
+Session ID: 516a50cd7e9a3dfda2a47cb4b13c7d53</t>
   </si>
 </sst>
 </file>
@@ -92,7 +286,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -123,7 +317,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>4707.0</v>
+        <v>416.0</v>
       </c>
     </row>
     <row r="3">
@@ -137,7 +331,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>23793.0</v>
+        <v>362.0</v>
       </c>
     </row>
     <row r="4">
@@ -151,7 +345,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>12053.0</v>
+        <v>2919.0</v>
       </c>
     </row>
     <row r="5">
@@ -165,7 +359,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>12191.0</v>
+        <v>548.0</v>
       </c>
     </row>
     <row r="6">
@@ -179,7 +373,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>44330.0</v>
+        <v>730.0</v>
       </c>
     </row>
     <row r="7">
@@ -193,7 +387,539 @@
         <v>6</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>2683.0</v>
+        <v>615.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>4652.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>2817.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>7209.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>28786.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>25693.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>17116.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>44979.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>8678.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>16242.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>55517.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>20163.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>9916.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>36110.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>30194.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>5487.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>34059.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>18167.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>20342.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>9693.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>35570.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>3313.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>5402.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>4535.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>14049.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>5947.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>36355.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>20143.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>12890.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>38710.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>10980.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>4971.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>23510.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>30040.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>27996.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D44" t="n" s="0">
+        <v>22042.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D45" t="n" s="0">
+        <v>23436.0</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="62">
   <si>
     <t>Test Name</t>
   </si>
@@ -89,117 +89,85 @@
     <t>test_ledger_transactions_modify_open_mode_TC_RS_12</t>
   </si>
   <si>
+    <t>test_ledger_transactions_modify_open_mode_TC_RS_12_Advance</t>
+  </si>
+  <si>
+    <t>test_checkin_allowed_on_matching_arrival_and_account_date_TC_CI_01</t>
+  </si>
+  <si>
+    <t>test_perform_checkin_on_matching_dates_TC_CI_02</t>
+  </si>
+  <si>
+    <t>test_verify_registration_card_and_email_after_checkin_TC_CI_04</t>
+  </si>
+  <si>
+    <t>test_create_walkin_reservation_and_checkin_TC_WI_01</t>
+  </si>
+  <si>
+    <t>test_print_registration_card_with_filters_TC_RC_01</t>
+  </si>
+  <si>
+    <t>test_filter_reservations_by_date_and_template_TC_RC_01</t>
+  </si>
+  <si>
+    <t>test_select_advance_type_and_reservation_room_TC_AD_01_Reservation</t>
+  </si>
+  <si>
+    <t>test_select_advance_type_and_reservation_room_TC_AD_01_CheckIN</t>
+  </si>
+  <si>
+    <t>test_view_records_needing_room_assignment_by_date_TC_RA_01</t>
+  </si>
+  <si>
+    <t>test_assign_room_number_manually_TC_RA_02</t>
+  </si>
+  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>element click intercepted: Element &lt;span style="right:2px;height:22px;padding-top:2px;" class="webix_input_icon wxi-search"&gt;&lt;/span&gt; is not clickable at point (364, 132). Other element would receive the click: &lt;div class="webix_modal" style="z-index: 100;"&gt;&lt;/div&gt;
-  (Session info: chrome=137.0.7151.122)
+    <t>Expected condition failed: waiting for visibility of element located by By.xpath: //div[text()='13021'] (tried for 20 second(s) with 500 milliseconds interval)
 Build info: version: '4.33.0', revision: '2c6aaad03a'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [b30c0b16e5ef8bf3d6af3d75e0abd398, clickElement {id=f.8BA8D96C3B897D3876193EDA7B8D9F69.d.A529EC0C428CCEC4B4D595C04E5B6EB6.e.3710}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55177}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55177/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (b30c0b16e5ef8bf3d6af3d75e0abd398)] -&gt; xpath: /html/body/div[3]/div/div/div[2]/div/div/div/div/div/div/div[1]/div[1]/div[2]/div/div[2]/div/div[1]/div/span]
-Session ID: b30c0b16e5ef8bf3d6af3d75e0abd398</t>
-  </si>
-  <si>
-    <t>test_ledger_transactions_modify_open_mode_TC_RS_12_Advance</t>
-  </si>
-  <si>
-    <t>test_checkin_allowed_on_matching_arrival_and_account_date_TC_CI_01</t>
-  </si>
-  <si>
-    <t>test_perform_checkin_on_matching_dates_TC_CI_02</t>
-  </si>
-  <si>
-    <t>test_verify_registration_card_and_email_after_checkin_TC_CI_04</t>
-  </si>
-  <si>
-    <t>test_create_walkin_reservation_and_checkin_TC_WI_01</t>
-  </si>
-  <si>
-    <t>test_print_registration_card_with_filters_TC_RC_01</t>
-  </si>
-  <si>
-    <t>stale element reference: stale element not found
-  (Session info: chrome=137.0.7151.122)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#stale-element-reference-exception
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50900}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50900/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 227ed1ddb42825bca777a79ec86381f1</t>
+  </si>
+  <si>
+    <t>test_verify_current_inhouse_guests_displayed_TC_GS_01</t>
+  </si>
+  <si>
+    <t>test_uncheck_current_guest_to_view_all_guests_TC_GS_02</t>
+  </si>
+  <si>
+    <t>test_check_pm_to_view_paymaster_guests_TC_GS_03</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to be clickable: By.xpath: (//button[@class="webix_button webix_img_btn"])[1] (tried for 20 second(s) with 500 milliseconds interval)
 Build info: version: '4.33.0', revision: '2c6aaad03a'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [caa7443df75543452536016e90fd7f35, sendKeysToElement {value=[Ljava.lang.CharSequence;@24afdf18, id=f.4BC404FDFFD38EABED11D34B1BE3C212.d.61A6B22B6AB564E211CC6EC0D06B688E.e.46}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55725}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55725/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (caa7443df75543452536016e90fd7f35)] -&gt; id: Password]
-Session ID: caa7443df75543452536016e90fd7f35</t>
-  </si>
-  <si>
-    <t>test_select_advance_type_and_reservation_room_TC_AD_01_Reservation</t>
-  </si>
-  <si>
-    <t>SKIPPED</t>
-  </si>
-  <si>
-    <t>test_select_advance_type_and_reservation_room_TC_AD_01_CheckIN</t>
-  </si>
-  <si>
-    <t>test_view_records_needing_room_assignment_by_date_TC_RA_01</t>
-  </si>
-  <si>
-    <t>element click intercepted: Element &lt;span role="button" tabindex="0" class="webix_cal_icon_today webix_cal_icon"&gt;...&lt;/span&gt; is not clickable at point (516, 333). Other element would receive the click: &lt;span aria-hidden="true" class="webix_cal_day_inner" style="display:inline-block; width:27px; height:27px; line-height:27px;"&gt;...&lt;/span&gt;
-  (Session info: chrome=137.0.7151.122)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51039}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51039/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0a4c646ab33768ec8014af1a3e539ae5</t>
+  </si>
+  <si>
+    <t>test_search_guests_by_multiple_fields_TC_GS_04</t>
+  </si>
+  <si>
+    <t>test_verify_guests_displayed_in_sequence_order_TC_GS_05</t>
+  </si>
+  <si>
+    <t>test_edit_guest_name_and_personal_details_TC_GIH_01</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to be clickable: By.xpath: //span[@class='fa fa-search ExpBkGridIconBtn'] (tried for 20 second(s) with 500 milliseconds interval)
 Build info: version: '4.33.0', revision: '2c6aaad03a'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [e3edb7eca11e0045b224ff248ee77221, clickElement {id=f.B4540B29B67BC03F6E2CF80C95AF793A.d.E5735126A006B672B37BBCABECC30DDE.e.253}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55781}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55781/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (e3edb7eca11e0045b224ff248ee77221)] -&gt; xpath: //span[text()="Today"]]
-Session ID: e3edb7eca11e0045b224ff248ee77221</t>
-  </si>
-  <si>
-    <t>test_assign_room_number_manually_TC_RA_02</t>
-  </si>
-  <si>
-    <t>test_verify_current_inhouse_guests_displayed_TC_GS_01</t>
-  </si>
-  <si>
-    <t>test_uncheck_current_guest_to_view_all_guests_TC_GS_02</t>
-  </si>
-  <si>
-    <t>test_check_pm_to_view_paymaster_guests_TC_GS_03</t>
-  </si>
-  <si>
-    <t>test_search_guests_by_multiple_fields_TC_GS_04</t>
-  </si>
-  <si>
-    <t>test_verify_guests_displayed_in_sequence_order_TC_GS_05</t>
-  </si>
-  <si>
-    <t>test_edit_guest_name_and_personal_details_TC_GIH_01</t>
-  </si>
-  <si>
-    <t>element click intercepted: Element &lt;button type="button" class="webix_button" disabled="true"&gt;...&lt;/button&gt; is not clickable at point (1025, 48). Other element would receive the click: &lt;div class="webix_disabled"&gt;&lt;/div&gt;
-  (Session info: chrome=137.0.7151.122)
-Build info: version: '4.33.0', revision: '2c6aaad03a'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [516a50cd7e9a3dfda2a47cb4b13c7d53, clickElement {id=f.CB1753BD95BD56C5906E6D755EB86398.d.FA0484A3BF106D464CEF68AB5ED7AC22.e.422}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56072}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56072/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (516a50cd7e9a3dfda2a47cb4b13c7d53)] -&gt; xpath: //button[text()='Select']]
-Session ID: 516a50cd7e9a3dfda2a47cb4b13c7d53</t>
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51223}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51223/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d507b4d90895633e68d041ffdc869790</t>
   </si>
   <si>
     <t>test_modify_segment_company_guest_type_and_agent_TC_GIH_02</t>
-  </si>
-  <si>
-    <t>element click intercepted: Element &lt;button type="button" class="webix_button" disabled="true"&gt;...&lt;/button&gt; is not clickable at point (1025, 48). Other element would receive the click: &lt;div class="webix_disabled"&gt;&lt;/div&gt;
-  (Session info: chrome=137.0.7151.122)
-Build info: version: '4.33.0', revision: '2c6aaad03a'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [516a50cd7e9a3dfda2a47cb4b13c7d53, clickElement {id=f.CB1753BD95BD56C5906E6D755EB86398.d.81E01EC64F7CBB000BFA0F93AAA2147D.e.685}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56072}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56072/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (516a50cd7e9a3dfda2a47cb4b13c7d53)] -&gt; xpath: //button[text()='Select']]
-Session ID: 516a50cd7e9a3dfda2a47cb4b13c7d53</t>
   </si>
   <si>
     <t>test_edit_rate_routing_post_bar_and_split_TC_GIH_03</t>
@@ -210,38 +178,57 @@
 Build info: version: '4.33.0', revision: '2c6aaad03a'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [516a50cd7e9a3dfda2a47cb4b13c7d53, clickElement {id=f.CB1753BD95BD56C5906E6D755EB86398.d.B1CC8808C4D9A22FBC037339A11DCEB9.e.798}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56072}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56072/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (516a50cd7e9a3dfda2a47cb4b13c7d53)] -&gt; xpath: //span[@class='fa fa-save']]
-Session ID: 516a50cd7e9a3dfda2a47cb4b13c7d53</t>
+Command: [d507b4d90895633e68d041ffdc869790, clickElement {id=f.45F338842342DADE168AE5975E95A4AC.d.99203E8BE61921F8CC0BB0CC9235D89E.e.1152}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51223}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51223/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (d507b4d90895633e68d041ffdc869790)] -&gt; xpath: //span[@class='fa fa-save']]
+Session ID: d507b4d90895633e68d041ffdc869790</t>
   </si>
   <si>
     <t>test_modify_other_tab_fields_TC_GIH_04</t>
   </si>
   <si>
-    <t>element click intercepted: Element &lt;button type="button" class="webix_button" disabled="true"&gt;...&lt;/button&gt; is not clickable at point (1025, 48). Other element would receive the click: &lt;div class="webix_disabled"&gt;&lt;/div&gt;
+    <t>test_view_inhouse_log_TC_GIH_05</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"(//div[@role='gridcell' and @aria-rowindex='2' and @aria-colindex='5'])[2]"}
   (Session info: chrome=137.0.7151.122)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
 Build info: version: '4.33.0', revision: '2c6aaad03a'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [516a50cd7e9a3dfda2a47cb4b13c7d53, clickElement {id=f.CB1753BD95BD56C5906E6D755EB86398.d.2413ADB1F0877CD9C2DED30436C0782E.e.1199}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56072}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56072/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (516a50cd7e9a3dfda2a47cb4b13c7d53)] -&gt; xpath: //button[text()='Select']]
-Session ID: 516a50cd7e9a3dfda2a47cb4b13c7d53</t>
-  </si>
-  <si>
-    <t>test_view_inhouse_log_TC_GIH_05</t>
-  </si>
-  <si>
-    <t>element click intercepted: Element &lt;button type="button" class="webix_button" disabled="true"&gt;...&lt;/button&gt; is not clickable at point (1025, 48). Other element would receive the click: &lt;div class="webix_disabled"&gt;&lt;/div&gt;
-  (Session info: chrome=137.0.7151.122)
-Build info: version: '4.33.0', revision: '2c6aaad03a'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [516a50cd7e9a3dfda2a47cb4b13c7d53, clickElement {id=f.CB1753BD95BD56C5906E6D755EB86398.d.B4A3FF3D64E312CCCB4709EF84972439.e.1492}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56072}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56072/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (516a50cd7e9a3dfda2a47cb4b13c7d53)] -&gt; xpath: //button[text()='Select']]
-Session ID: 516a50cd7e9a3dfda2a47cb4b13c7d53</t>
+Command: [d507b4d90895633e68d041ffdc869790, findElement {value=(//div[@role='gridcell' and @aria-rowindex='2' and @aria-colindex='5'])[2], using=xpath}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.122, chrome: {chromedriverVersion: 137.0.7151.68 (2989ffee9373..., userDataDir: C:\Users\Jeeva\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51223}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51223/devtoo..., se:cdpVersion: 137.0.7151.122, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d507b4d90895633e68d041ffdc869790</t>
+  </si>
+  <si>
+    <t>test_create_new_complaint_for_various_guest_statuses_TC_GCRM_01</t>
+  </si>
+  <si>
+    <t>test_create_new_request_for_various_guest_statuses_TC_GCRM_02</t>
+  </si>
+  <si>
+    <t>test_create_new_message_for_various_guest_statuses_TC_GCRM_03</t>
+  </si>
+  <si>
+    <t>test_modify_complaint_details_open_mode_TC_GCRM_04</t>
+  </si>
+  <si>
+    <t>test_modify_request_details_open_mode_TC_GCRM_05</t>
+  </si>
+  <si>
+    <t>test_modify_message_details_open_mode_TC_GCRM_06</t>
+  </si>
+  <si>
+    <t>test_view_complaint_request_message_details_TC_GCRM_07</t>
+  </si>
+  <si>
+    <t>test_delete_complaint_request_message_view_mode_TC_GCRM_08</t>
+  </si>
+  <si>
+    <t>test_close_complaint_request_message_with_action_note_TC_GCRM_09</t>
+  </si>
+  <si>
+    <t>test_view_reports_from_header_button_TC_GCRM_10</t>
   </si>
 </sst>
 </file>
@@ -286,7 +273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -331,7 +318,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>362.0</v>
+        <v>365.0</v>
       </c>
     </row>
     <row r="4">
@@ -345,7 +332,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>2919.0</v>
+        <v>3019.0</v>
       </c>
     </row>
     <row r="5">
@@ -359,7 +346,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>548.0</v>
+        <v>606.0</v>
       </c>
     </row>
     <row r="6">
@@ -373,7 +360,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>730.0</v>
+        <v>839.0</v>
       </c>
     </row>
     <row r="7">
@@ -387,7 +374,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>615.0</v>
+        <v>658.0</v>
       </c>
     </row>
     <row r="8">
@@ -401,7 +388,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>4652.0</v>
+        <v>6990.0</v>
       </c>
     </row>
     <row r="9">
@@ -415,7 +402,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>2817.0</v>
+        <v>5116.0</v>
       </c>
     </row>
     <row r="10">
@@ -429,7 +416,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>7209.0</v>
+        <v>8894.0</v>
       </c>
     </row>
     <row r="11">
@@ -443,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>28786.0</v>
+        <v>31995.0</v>
       </c>
     </row>
     <row r="12">
@@ -457,7 +444,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>25693.0</v>
+        <v>83123.0</v>
       </c>
     </row>
     <row r="13">
@@ -471,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>17116.0</v>
+        <v>23416.0</v>
       </c>
     </row>
     <row r="14">
@@ -485,7 +472,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>44979.0</v>
+        <v>51475.0</v>
       </c>
     </row>
     <row r="15">
@@ -499,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>8678.0</v>
+        <v>18576.0</v>
       </c>
     </row>
     <row r="16">
@@ -513,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>16242.0</v>
+        <v>41225.0</v>
       </c>
     </row>
     <row r="17">
@@ -527,7 +514,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>55517.0</v>
+        <v>72402.0</v>
       </c>
     </row>
     <row r="18">
@@ -541,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>20163.0</v>
+        <v>50536.0</v>
       </c>
     </row>
     <row r="19">
@@ -555,7 +542,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>9916.0</v>
+        <v>10897.0</v>
       </c>
     </row>
     <row r="20">
@@ -563,18 +550,18 @@
         <v>24</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>36110.0</v>
+        <v>53078.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>5</v>
@@ -583,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>30194.0</v>
+        <v>44004.0</v>
       </c>
     </row>
     <row r="22">
@@ -597,12 +584,12 @@
         <v>6</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>5487.0</v>
+        <v>5904.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>5</v>
@@ -611,12 +598,12 @@
         <v>6</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>34059.0</v>
+        <v>38191.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>5</v>
@@ -625,12 +612,12 @@
         <v>6</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>18167.0</v>
+        <v>20892.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>5</v>
@@ -639,12 +626,12 @@
         <v>6</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>20342.0</v>
+        <v>31570.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>5</v>
@@ -653,12 +640,12 @@
         <v>6</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>9693.0</v>
+        <v>12109.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>5</v>
@@ -667,54 +654,54 @@
         <v>6</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>35570.0</v>
+        <v>39252.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>3313.0</v>
+        <v>26632.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>0.0</v>
+        <v>3937.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>0.0</v>
+        <v>54124.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s" s="0">
         <v>5</v>
@@ -723,26 +710,26 @@
         <v>6</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>5402.0</v>
+        <v>111916.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>4535.0</v>
+        <v>6994.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>5</v>
@@ -751,26 +738,26 @@
         <v>6</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>14049.0</v>
+        <v>14908.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>5947.0</v>
+        <v>34201.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>5</v>
@@ -779,12 +766,12 @@
         <v>6</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>36355.0</v>
+        <v>4994.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>5</v>
@@ -793,12 +780,12 @@
         <v>6</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>20143.0</v>
+        <v>36535.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>5</v>
@@ -807,26 +794,26 @@
         <v>6</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>12890.0</v>
+        <v>19091.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>38710.0</v>
+        <v>25946.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s" s="0">
         <v>5</v>
@@ -835,12 +822,12 @@
         <v>6</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>10980.0</v>
+        <v>43885.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s" s="0">
         <v>5</v>
@@ -849,77 +836,245 @@
         <v>6</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>4971.0</v>
+        <v>4359.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>23510.0</v>
+        <v>4312.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>30040.0</v>
+        <v>62715.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>27996.0</v>
+        <v>49471.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>22042.0</v>
+        <v>26346.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D45" t="n" s="0">
+        <v>35910.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D46" t="n" s="0">
+        <v>34640.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n" s="0">
+        <v>11880.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n" s="0">
+        <v>60648.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B45" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="C45" t="s" s="0">
+      <c r="B49" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n" s="0">
+        <v>55888.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D45" t="n" s="0">
-        <v>23436.0</v>
+      <c r="B50" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D50" t="n" s="0">
+        <v>60783.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D51" t="n" s="0">
+        <v>33813.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D52" t="n" s="0">
+        <v>37555.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D53" t="n" s="0">
+        <v>41854.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D54" t="n" s="0">
+        <v>82655.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D55" t="n" s="0">
+        <v>76785.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D56" t="n" s="0">
+        <v>72169.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D57" t="n" s="0">
+        <v>34349.0</v>
       </c>
     </row>
   </sheetData>
